--- a/ds_View.xlsx
+++ b/ds_View.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CQV\Documents\GitHub\bdlqd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C20847-64B1-4B50-A4F6-2092FB622521}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141C14B-A316-4355-824E-18CF205CF11B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" xr2:uid="{5FDA184A-467D-4267-A573-2C8928669431}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="182">
   <si>
     <t>Giáo viên</t>
   </si>
@@ -100,6 +100,477 @@
   </si>
   <si>
     <t>getChamTap4</t>
+  </si>
+  <si>
+    <t>getdataby6</t>
+  </si>
+  <si>
+    <t>getChamTap5</t>
+  </si>
+  <si>
+    <t>getngay</t>
+  </si>
+  <si>
+    <t>getChamTap6</t>
+  </si>
+  <si>
+    <t>getexport</t>
+  </si>
+  <si>
+    <t>getChamTap7</t>
+  </si>
+  <si>
+    <t>getdataby7</t>
+  </si>
+  <si>
+    <t>getChamTap8</t>
+  </si>
+  <si>
+    <t>insertQuery</t>
+  </si>
+  <si>
+    <t>insertChamTap</t>
+  </si>
+  <si>
+    <t>updateQuery</t>
+  </si>
+  <si>
+    <t>updateChamTap</t>
+  </si>
+  <si>
+    <t>datatable3</t>
+  </si>
+  <si>
+    <t>getData</t>
+  </si>
+  <si>
+    <t>getKetQua1</t>
+  </si>
+  <si>
+    <t>getDataby</t>
+  </si>
+  <si>
+    <t>getSoCau</t>
+  </si>
+  <si>
+    <t>getDataby1</t>
+  </si>
+  <si>
+    <t>getKetQua2</t>
+  </si>
+  <si>
+    <t>getDataby2</t>
+  </si>
+  <si>
+    <t>getKetQua3</t>
+  </si>
+  <si>
+    <t>baiTap</t>
+  </si>
+  <si>
+    <t>getBaiTap</t>
+  </si>
+  <si>
+    <t>getKetQua_all</t>
+  </si>
+  <si>
+    <t>DataTable1DataAdapter</t>
+  </si>
+  <si>
+    <t>KiemTra</t>
+  </si>
+  <si>
+    <t>getKiemTra</t>
+  </si>
+  <si>
+    <t>deleteKiemTra</t>
+  </si>
+  <si>
+    <t>getDataby3</t>
+  </si>
+  <si>
+    <t>getKiemTra1</t>
+  </si>
+  <si>
+    <t>getKiemTra2</t>
+  </si>
+  <si>
+    <t>getdsdotkiemtra</t>
+  </si>
+  <si>
+    <t>getDataBy4</t>
+  </si>
+  <si>
+    <t>getKiemTra3</t>
+  </si>
+  <si>
+    <t>insertKiemTra</t>
+  </si>
+  <si>
+    <t>updateKiemtra</t>
+  </si>
+  <si>
+    <t>ttphieubao</t>
+  </si>
+  <si>
+    <t>getThongTinPhieuBao</t>
+  </si>
+  <si>
+    <t>chitietTKB</t>
+  </si>
+  <si>
+    <t>getDataBy</t>
+  </si>
+  <si>
+    <t>getChiTietTKB1</t>
+  </si>
+  <si>
+    <t>getChiTietTKB_all</t>
+  </si>
+  <si>
+    <t>DataTable4</t>
+  </si>
+  <si>
+    <t>getKetQua4</t>
+  </si>
+  <si>
+    <t>DataTable2</t>
+  </si>
+  <si>
+    <t>getKetQua5</t>
+  </si>
+  <si>
+    <t>KiemTra1</t>
+  </si>
+  <si>
+    <t>ThoiKhoaBieu</t>
+  </si>
+  <si>
+    <t>GetData</t>
+  </si>
+  <si>
+    <t>getTKB_all</t>
+  </si>
+  <si>
+    <t>Nguyenvonghocvien</t>
+  </si>
+  <si>
+    <t>getNVHocVien</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>getNhanVien</t>
+  </si>
+  <si>
+    <t>Lop</t>
+  </si>
+  <si>
+    <t>getLop_All</t>
+  </si>
+  <si>
+    <t>getLopGoc</t>
+  </si>
+  <si>
+    <t>getLop1</t>
+  </si>
+  <si>
+    <t>getLop</t>
+  </si>
+  <si>
+    <t>getLop2</t>
+  </si>
+  <si>
+    <t>exporthv</t>
+  </si>
+  <si>
+    <t>getLop3</t>
+  </si>
+  <si>
+    <t>exporthv1</t>
+  </si>
+  <si>
+    <t>getLop4</t>
+  </si>
+  <si>
+    <t>hv4</t>
+  </si>
+  <si>
+    <t>getLop5</t>
+  </si>
+  <si>
+    <t>hv5</t>
+  </si>
+  <si>
+    <t>getLop6</t>
+  </si>
+  <si>
+    <t>exportnhan</t>
+  </si>
+  <si>
+    <t>getLop7</t>
+  </si>
+  <si>
+    <t>DiemDanh</t>
+  </si>
+  <si>
+    <t>getDiemDanh1</t>
+  </si>
+  <si>
+    <t>getDiemDanh2</t>
+  </si>
+  <si>
+    <t>getDataBy1</t>
+  </si>
+  <si>
+    <t>getDiemDanh3</t>
+  </si>
+  <si>
+    <t>getDataBy2</t>
+  </si>
+  <si>
+    <t>getDiemDanh4</t>
+  </si>
+  <si>
+    <t>gettre</t>
+  </si>
+  <si>
+    <t>getDiemDanh5</t>
+  </si>
+  <si>
+    <t>getDiemDanh6</t>
+  </si>
+  <si>
+    <t>getDiemDanh7</t>
+  </si>
+  <si>
+    <t>getTrexp</t>
+  </si>
+  <si>
+    <t>getDiemDanh8</t>
+  </si>
+  <si>
+    <t>getPhep</t>
+  </si>
+  <si>
+    <t>getKhong</t>
+  </si>
+  <si>
+    <t>getDiemDanh9</t>
+  </si>
+  <si>
+    <t>getDiemDanh10</t>
+  </si>
+  <si>
+    <t>HocVien</t>
+  </si>
+  <si>
+    <t>getHocVien1</t>
+  </si>
+  <si>
+    <t>getHocVien2</t>
+  </si>
+  <si>
+    <t>getFilter</t>
+  </si>
+  <si>
+    <t>getHocVien3</t>
+  </si>
+  <si>
+    <t>getHocVien4</t>
+  </si>
+  <si>
+    <t>getHocVien5</t>
+  </si>
+  <si>
+    <t>getFilter2</t>
+  </si>
+  <si>
+    <t>gethsexport</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>getDe1</t>
+  </si>
+  <si>
+    <t>deletequery</t>
+  </si>
+  <si>
+    <t>deleteDe</t>
+  </si>
+  <si>
+    <t>getCauhoi</t>
+  </si>
+  <si>
+    <t>getDe2</t>
+  </si>
+  <si>
+    <t>getDe3</t>
+  </si>
+  <si>
+    <t>getcount</t>
+  </si>
+  <si>
+    <t>getDe4</t>
+  </si>
+  <si>
+    <t>getDataBy5</t>
+  </si>
+  <si>
+    <t>getDe5</t>
+  </si>
+  <si>
+    <t>getDe6</t>
+  </si>
+  <si>
+    <t>getDataBy7</t>
+  </si>
+  <si>
+    <t>getDe7</t>
+  </si>
+  <si>
+    <t>getDataBy6</t>
+  </si>
+  <si>
+    <t>top21</t>
+  </si>
+  <si>
+    <t>getDe8</t>
+  </si>
+  <si>
+    <t>top42</t>
+  </si>
+  <si>
+    <t>getDe9</t>
+  </si>
+  <si>
+    <t>getDe10</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>getcautheode</t>
+  </si>
+  <si>
+    <t>getDe11</t>
+  </si>
+  <si>
+    <t>InsertDe</t>
+  </si>
+  <si>
+    <t>updateQuery1</t>
+  </si>
+  <si>
+    <t>UpdateDe1</t>
+  </si>
+  <si>
+    <t>UpdateDe2</t>
+  </si>
+  <si>
+    <t>ketquahoctap</t>
+  </si>
+  <si>
+    <t>getKetQua9</t>
+  </si>
+  <si>
+    <t>deleteKetQua</t>
+  </si>
+  <si>
+    <t>deleteKetQua1</t>
+  </si>
+  <si>
+    <t>getKetQua10</t>
+  </si>
+  <si>
+    <t>trungget</t>
+  </si>
+  <si>
+    <t>getKetQua11</t>
+  </si>
+  <si>
+    <t>gethv</t>
+  </si>
+  <si>
+    <t>gettheohocvien</t>
+  </si>
+  <si>
+    <t>getKetQua13</t>
+  </si>
+  <si>
+    <t>getKetQua14</t>
+  </si>
+  <si>
+    <t>gettoreport</t>
+  </si>
+  <si>
+    <t>getKetQua15</t>
+  </si>
+  <si>
+    <t>getKetQua16</t>
+  </si>
+  <si>
+    <t>gẹtKetQua17</t>
+  </si>
+  <si>
+    <t>getKetQua18</t>
+  </si>
+  <si>
+    <t>getKetQua19</t>
+  </si>
+  <si>
+    <t>getKetQua20</t>
+  </si>
+  <si>
+    <t>getKetQua21</t>
+  </si>
+  <si>
+    <t>getidbaitap</t>
+  </si>
+  <si>
+    <t>getnhomcau</t>
+  </si>
+  <si>
+    <t>getid</t>
+  </si>
+  <si>
+    <t>getdatayby8</t>
+  </si>
+  <si>
+    <t>getforreport</t>
+  </si>
+  <si>
+    <t>getKetQua22</t>
+  </si>
+  <si>
+    <t>Insertquery</t>
+  </si>
+  <si>
+    <t>InsertKetQua</t>
+  </si>
+  <si>
+    <t>Updatequery</t>
+  </si>
+  <si>
+    <t>UpdateKetQua</t>
+  </si>
+  <si>
+    <t>UpdateQuery1</t>
+  </si>
+  <si>
+    <t>getKetQua23 lấy sum, set diem=sum vừa có</t>
+  </si>
+  <si>
+    <t>getKetqua23 + UpdateKetqua1</t>
+  </si>
+  <si>
+    <t>Updatespencail</t>
+  </si>
+  <si>
+    <t>UpdateKetQua2</t>
   </si>
 </sst>
 </file>
@@ -451,14 +922,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C35B5-3773-4D90-A42D-B6FDCBA6AED0}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
@@ -493,9 +966,6 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -600,6 +1070,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -611,6 +1084,1328 @@
       </c>
       <c r="E9" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" t="s">
+        <v>179</v>
+      </c>
+      <c r="F95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/ds_View.xlsx
+++ b/ds_View.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CQV\Documents\GitHub\bdlqd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141C14B-A316-4355-824E-18CF205CF11B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB3BCB-DB5B-4C31-A4A5-FB60DB6C0C8D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" xr2:uid="{5FDA184A-467D-4267-A573-2C8928669431}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="190">
   <si>
     <t>Giáo viên</t>
   </si>
@@ -571,6 +571,30 @@
   </si>
   <si>
     <t>UpdateKetQua2</t>
+  </si>
+  <si>
+    <t>deleteQuery1</t>
+  </si>
+  <si>
+    <t>InsertQuery</t>
+  </si>
+  <si>
+    <t>InsertPhieuBao</t>
+  </si>
+  <si>
+    <t>Nhanvien</t>
+  </si>
+  <si>
+    <t>UpdateQuery</t>
+  </si>
+  <si>
+    <t>UpdatePassword</t>
+  </si>
+  <si>
+    <t>getTTPhieuBao</t>
+  </si>
+  <si>
+    <t>dư</t>
   </si>
 </sst>
 </file>
@@ -922,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C35B5-3773-4D90-A42D-B6FDCBA6AED0}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,47 +1452,44 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1479,16 +1500,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -1496,13 +1517,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1513,13 +1534,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1530,16 +1551,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -1547,13 +1568,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -1564,13 +1585,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -1581,16 +1602,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
@@ -1601,13 +1622,13 @@
         <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>1</v>
@@ -1618,10 +1639,10 @@
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1635,10 +1656,10 @@
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -1652,10 +1673,10 @@
         <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -1669,10 +1690,10 @@
         <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -1686,10 +1707,10 @@
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -1700,13 +1721,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -1717,13 +1738,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1737,10 +1758,10 @@
         <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -1754,10 +1775,10 @@
         <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -1771,10 +1792,10 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -1788,10 +1809,10 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -1805,10 +1826,10 @@
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -1822,10 +1843,10 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -1839,10 +1860,10 @@
         <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -1856,10 +1877,10 @@
         <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -1870,13 +1891,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -1887,13 +1908,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -1907,10 +1928,10 @@
         <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -1924,10 +1945,10 @@
         <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -1941,10 +1962,10 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -1955,13 +1976,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -1972,13 +1993,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -1992,10 +2013,10 @@
         <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -2009,10 +2030,10 @@
         <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -2026,10 +2047,10 @@
         <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -2043,10 +2064,10 @@
         <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -2060,10 +2081,10 @@
         <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -2077,10 +2098,10 @@
         <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -2094,10 +2115,10 @@
         <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -2111,10 +2132,10 @@
         <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -2128,10 +2149,10 @@
         <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -2145,10 +2166,10 @@
         <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -2162,10 +2183,10 @@
         <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -2179,10 +2200,10 @@
         <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -2196,10 +2217,10 @@
         <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -2210,13 +2231,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -2227,13 +2248,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -2247,10 +2268,10 @@
         <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2264,10 +2285,10 @@
         <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -2281,131 +2302,218 @@
         <v>148</v>
       </c>
       <c r="B80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
         <v>153</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>154</v>
       </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" t="s">
         <v>156</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
         <v>159</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
         <v>135</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" t="s">
         <v>167</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
         <v>168</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" t="s">
         <v>169</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
         <v>170</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" t="s">
         <v>171</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
         <v>173</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
         <v>175</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" t="s">
         <v>177</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>179</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F97" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
         <v>180</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/ds_View.xlsx
+++ b/ds_View.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CQV\Documents\GitHub\bdlqd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB3BCB-DB5B-4C31-A4A5-FB60DB6C0C8D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05226858-6F75-4595-8B83-44CFA70A7079}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" xr2:uid="{5FDA184A-467D-4267-A573-2C8928669431}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="219">
   <si>
     <t>Giáo viên</t>
   </si>
@@ -595,6 +595,93 @@
   </si>
   <si>
     <t>dư</t>
+  </si>
+  <si>
+    <t>getKhoahoc</t>
+  </si>
+  <si>
+    <t>Get khóa học hiện tại</t>
+  </si>
+  <si>
+    <t>getphudao_all</t>
+  </si>
+  <si>
+    <t>get tất cả phụ đạo</t>
+  </si>
+  <si>
+    <t>getphudao 1</t>
+  </si>
+  <si>
+    <t>get phụ đạo chưa kết thúc</t>
+  </si>
+  <si>
+    <t>insertphudao</t>
+  </si>
+  <si>
+    <t>updatephudao</t>
+  </si>
+  <si>
+    <t>deletephudao</t>
+  </si>
+  <si>
+    <t>getCaBiet_all</t>
+  </si>
+  <si>
+    <t>getcabiet1</t>
+  </si>
+  <si>
+    <t>insertcabiet</t>
+  </si>
+  <si>
+    <t>updatecabiet</t>
+  </si>
+  <si>
+    <t>deletecabiet</t>
+  </si>
+  <si>
+    <t>get tất cả</t>
+  </si>
+  <si>
+    <t>get chưa giải quyết</t>
+  </si>
+  <si>
+    <t>getnhanvien</t>
+  </si>
+  <si>
+    <t>getnhanvien1</t>
+  </si>
+  <si>
+    <t>insertnhanvien</t>
+  </si>
+  <si>
+    <t>updatenhanvien</t>
+  </si>
+  <si>
+    <t>deletenhanvien</t>
+  </si>
+  <si>
+    <t>getquanhenhanvien</t>
+  </si>
+  <si>
+    <t>insertquanhenhanvien</t>
+  </si>
+  <si>
+    <t>updatequanhenhanvien</t>
+  </si>
+  <si>
+    <t>deletequanhenhanvien</t>
+  </si>
+  <si>
+    <t>getkinhnghiemnhanvien</t>
+  </si>
+  <si>
+    <t>insertkinnhnghiemnhanvien</t>
+  </si>
+  <si>
+    <t>updatekinhnghiemnhanvien</t>
+  </si>
+  <si>
+    <t>deletekinhnghiemnhanvien</t>
   </si>
 </sst>
 </file>
@@ -946,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C35B5-3773-4D90-A42D-B6FDCBA6AED0}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,6 +2603,144 @@
         <v>187</v>
       </c>
     </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>199</v>
+      </c>
+      <c r="F106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
